--- a/data/Cartographie_Projets_AMSS.xlsx
+++ b/data/Cartographie_Projets_AMSS.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\illil\Downloads\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP PAVILION15\Desktop\FOOD SECURITY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766B1DB0-6077-42A0-8A7A-C51E6ED0183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410099A-A28C-4128-B3DC-B89424F92BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1140" windowWidth="18750" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Rapports" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="271">
   <si>
     <t>N°</t>
   </si>
@@ -991,16 +990,67 @@
     <t>Projet Mali Résilience Challenge Fund Program (MRCFP).</t>
   </si>
   <si>
-    <t>Titre</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Fichier</t>
-  </si>
-  <si>
-    <t>Lien</t>
+    <t>Projet de résilience urbaine de Bamako (PRUBA)</t>
+  </si>
+  <si>
+    <t>Bamako(Commune 5 et 6)</t>
+  </si>
+  <si>
+    <t>Sept 2025- Aoû 2027</t>
+  </si>
+  <si>
+    <t>Ministère de l'urbanisme, de l'habitat et de l'amenagement du territoire</t>
+  </si>
+  <si>
+    <t>Population locale / communautés riveraines , Habitants des zones impactées par le projet  (Groupement de femmes et jeunes)</t>
+  </si>
+  <si>
+    <t>Accompagner le projet dans la mise en œuvre des composantes 1, 2 et 3, à travers des actions de mobilisation et engagement citoyen, d’intermédiation sociale, de communication et de sensibilisation pour le changement de comportement en matière d’eau, d’hygiène et d’assainissement dans les communautés ciblées par le projet.</t>
+  </si>
+  <si>
+    <t>Mobilisation social et engagement citoyen dans le secteur  EHA</t>
+  </si>
+  <si>
+    <t>Programme
+Education- /partenariat AMSS-Fondation Stromme</t>
+  </si>
+  <si>
+    <t>Région de Koulikoro, Cercle de Kati,commune de Mountougoula</t>
+  </si>
+  <si>
+    <t>2024-2028</t>
+  </si>
+  <si>
+    <t>60 994 038</t>
+  </si>
+  <si>
+    <t>enfants déscolarisés, non scolarisés, enfants PDIs,parents PDIs</t>
+  </si>
+  <si>
+    <t>Enrôlement des enfants non scolarisés et descolarisés des parents vulnérables et PDIs avec une formation SSA/P de 9 mois et après transfert à l'école classique en 4ème année pour continuer son curcissus  avec des kits scolaire de transferts à l'école. Il ya aussi la SSA2 pour les enfants de 13 à 14 ans après deux années de cours et transfert en 7ème année. Enfin l'Alphabétisation Active et apprentissage au petit metier pour les femmes EPC à travers la AA.</t>
+  </si>
+  <si>
+    <t>Programme
+Food Security/partenariat AMSS-Fondation Stromme</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>29 118 095</t>
+  </si>
+  <si>
+    <t>Producteurs,chefs de menages,femmes alaitentes</t>
+  </si>
+  <si>
+    <t>Renforcement de la resilience des producteurs agricoles et chefs de menage pour faire face aux effets de changements climatiques pour une bonne sécurité alimentaire</t>
+  </si>
+  <si>
+    <t>Programme
+S3A Jeunes Qualifiés/partenariat AMSS-Fondation Stromme</t>
+  </si>
+  <si>
+    <t>12 406 354</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1062,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,6 +1165,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1130,7 +1186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1249,13 +1305,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1444,6 +1518,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1452,12 +1547,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 30" xfId="2" xr:uid="{76D543DB-4CBD-4696-BB83-26A75C2133A9}"/>
+    <cellStyle name="Normal 30" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1759,27 +1860,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" customWidth="1"/>
-    <col min="9" max="9" width="19.6328125" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1845,12 +1946,12 @@
       <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="71" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47">
         <v>2</v>
       </c>
@@ -1881,9 +1982,9 @@
       <c r="J3" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="65"/>
-    </row>
-    <row r="4" spans="1:12" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1914,9 +2015,9 @@
       <c r="J4" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="K4" s="65"/>
-    </row>
-    <row r="5" spans="1:12" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1947,9 +2048,9 @@
       <c r="J5" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="65"/>
-    </row>
-    <row r="6" spans="1:12" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1980,9 +2081,9 @@
       <c r="J6" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="K6" s="65"/>
-    </row>
-    <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2011,9 +2112,9 @@
       <c r="J7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="65"/>
-    </row>
-    <row r="8" spans="1:12" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2044,9 +2145,9 @@
       <c r="J8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="65"/>
-    </row>
-    <row r="9" spans="1:12" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K8" s="72"/>
+    </row>
+    <row r="9" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2077,9 +2178,9 @@
       <c r="J9" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="65"/>
-    </row>
-    <row r="10" spans="1:12" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="72"/>
+    </row>
+    <row r="10" spans="1:12" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2110,9 +2211,9 @@
       <c r="J10" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="1:12" ht="85.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="72"/>
+    </row>
+    <row r="11" spans="1:12" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2143,9 +2244,9 @@
       <c r="J11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="65"/>
-    </row>
-    <row r="12" spans="1:12" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="72"/>
+    </row>
+    <row r="12" spans="1:12" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2176,9 +2277,9 @@
       <c r="J12" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="72"/>
+    </row>
+    <row r="13" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2209,9 +2310,9 @@
       <c r="J13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="65"/>
-    </row>
-    <row r="14" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="72"/>
+    </row>
+    <row r="14" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>13</v>
       </c>
@@ -2242,9 +2343,9 @@
       <c r="J14" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="72"/>
+    </row>
+    <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2275,9 +2376,9 @@
       <c r="J15" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="65"/>
-    </row>
-    <row r="16" spans="1:12" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="72"/>
+    </row>
+    <row r="16" spans="1:12" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2308,9 +2409,9 @@
       <c r="J16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="65"/>
-    </row>
-    <row r="17" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="72"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2341,9 +2442,9 @@
       <c r="J17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="65"/>
-    </row>
-    <row r="18" spans="1:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="72"/>
+    </row>
+    <row r="18" spans="1:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2374,9 +2475,9 @@
       <c r="J18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="65"/>
-    </row>
-    <row r="19" spans="1:11" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="72"/>
+    </row>
+    <row r="19" spans="1:11" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2407,9 +2508,9 @@
       <c r="J19" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="65"/>
-    </row>
-    <row r="20" spans="1:11" ht="67.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="72"/>
+    </row>
+    <row r="20" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2440,9 +2541,9 @@
       <c r="J20" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="65"/>
-    </row>
-    <row r="21" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="72"/>
+    </row>
+    <row r="21" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2473,9 +2574,9 @@
       <c r="J21" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="65"/>
-    </row>
-    <row r="22" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="72"/>
+    </row>
+    <row r="22" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2506,9 +2607,9 @@
       <c r="J22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="65"/>
-    </row>
-    <row r="23" spans="1:11" ht="70.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K22" s="72"/>
+    </row>
+    <row r="23" spans="1:11" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2539,9 +2640,9 @@
       <c r="J23" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="65"/>
-    </row>
-    <row r="24" spans="1:11" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="72"/>
+    </row>
+    <row r="24" spans="1:11" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2572,9 +2673,9 @@
       <c r="J24" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="65"/>
-    </row>
-    <row r="25" spans="1:11" ht="55.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K24" s="72"/>
+    </row>
+    <row r="25" spans="1:11" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2605,9 +2706,9 @@
       <c r="J25" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="65"/>
-    </row>
-    <row r="26" spans="1:11" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="72"/>
+    </row>
+    <row r="26" spans="1:11" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2638,9 +2739,9 @@
       <c r="J26" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="K26" s="65"/>
-    </row>
-    <row r="27" spans="1:11" ht="97.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K26" s="72"/>
+    </row>
+    <row r="27" spans="1:11" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2671,9 +2772,9 @@
       <c r="J27" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="K27" s="65"/>
-    </row>
-    <row r="28" spans="1:11" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="72"/>
+    </row>
+    <row r="28" spans="1:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2704,9 +2805,9 @@
       <c r="J28" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="K28" s="65"/>
-    </row>
-    <row r="29" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="72"/>
+    </row>
+    <row r="29" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2737,9 +2838,9 @@
       <c r="J29" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="65"/>
-    </row>
-    <row r="30" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="72"/>
+    </row>
+    <row r="30" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2770,9 +2871,9 @@
       <c r="J30" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="K30" s="65"/>
-    </row>
-    <row r="31" spans="1:11" ht="73.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="72"/>
+    </row>
+    <row r="31" spans="1:11" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2803,9 +2904,9 @@
       <c r="J31" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" ht="34.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="72"/>
+    </row>
+    <row r="32" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2836,43 +2937,148 @@
       <c r="J32" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="K32" s="66"/>
+      <c r="K32" s="73"/>
+    </row>
+    <row r="33" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="A33" s="64">
+        <v>32</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="65"/>
+      <c r="I33" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="K33" s="74"/>
+    </row>
+    <row r="34" spans="1:11" ht="217.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" s="75"/>
+    </row>
+    <row r="35" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" s="75"/>
+    </row>
+    <row r="36" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="K36" s="75"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I38" s="66"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I40" s="66"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I41" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="K2:K32"/>
+    <mergeCell ref="K33:K36"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AADBD1-2EBD-4249-8719-3E316079F9E4}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>